--- a/IR Codes remote.xlsx
+++ b/IR Codes remote.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dropboxSpaceholder/Dropbox (Personal)/Semester5_Master/Masterthesis/prototyping/sittingCube/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB48F51-5A6F-AC42-9E9E-97C0CF6BAAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FBC338-97CF-094C-B128-13FBDB077D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="460" windowWidth="20280" windowHeight="16160" xr2:uid="{47BAAC61-011A-094D-A16C-912A0EF26B33}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{47BAAC61-011A-094D-A16C-912A0EF26B33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="126">
   <si>
     <t>Heller</t>
   </si>
@@ -179,17 +180,270 @@
     <t>F76897</t>
   </si>
   <si>
-    <t>F7</t>
-  </si>
-  <si>
     <t>xxxx</t>
+  </si>
+  <si>
+    <t>20DF</t>
+  </si>
+  <si>
+    <t>10EF</t>
+  </si>
+  <si>
+    <t>30CF</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <r>
+      <t>4080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+  </si>
+  <si>
+    <t>A05F</t>
+  </si>
+  <si>
+    <t>609F</t>
+  </si>
+  <si>
+    <t>E01F</t>
+  </si>
+  <si>
+    <t>08F7</t>
+  </si>
+  <si>
+    <t>28D7</t>
+  </si>
+  <si>
+    <t>906F</t>
+  </si>
+  <si>
+    <t>B04F</t>
+  </si>
+  <si>
+    <t>A857</t>
+  </si>
+  <si>
+    <t>50AF</t>
+  </si>
+  <si>
+    <t>708F</t>
+  </si>
+  <si>
+    <t>48B7</t>
+  </si>
+  <si>
+    <t>00FF</t>
+  </si>
+  <si>
+    <t>807F</t>
+  </si>
+  <si>
+    <t>40BF</t>
+  </si>
+  <si>
+    <t>C03F</t>
+  </si>
+  <si>
+    <t>D02F</t>
+  </si>
+  <si>
+    <t>F00F</t>
+  </si>
+  <si>
+    <t>C837</t>
+  </si>
+  <si>
+    <t>E817</t>
+  </si>
+  <si>
+    <t>F7xxxx</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Dezimal</t>
+  </si>
+  <si>
+    <t>Binär</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>111111110000</t>
+  </si>
+  <si>
+    <r>
+      <t>8160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>4080 + 4080</t>
+  </si>
+  <si>
+    <t>107F7</t>
+  </si>
+  <si>
+    <t>127D7</t>
+  </si>
+  <si>
+    <t>147B7</t>
+  </si>
+  <si>
+    <t>1A757</t>
+  </si>
+  <si>
+    <t>FFFF</t>
+  </si>
+  <si>
+    <t>10FEF</t>
+  </si>
+  <si>
+    <t>12FCF</t>
+  </si>
+  <si>
+    <t>11FDF</t>
+  </si>
+  <si>
+    <t>13FBF</t>
+  </si>
+  <si>
+    <t>00000000 11111111</t>
+  </si>
+  <si>
+    <t>10000000 01111111</t>
+  </si>
+  <si>
+    <t>01000000 10111111</t>
+  </si>
+  <si>
+    <t>11000000 00111111</t>
+  </si>
+  <si>
+    <t>11010000 00101111</t>
+  </si>
+  <si>
+    <t>11110000 00001111</t>
+  </si>
+  <si>
+    <t>11001000 00110111</t>
+  </si>
+  <si>
+    <t>11101000 00010111</t>
+  </si>
+  <si>
+    <t>00100000 11011111</t>
+  </si>
+  <si>
+    <t>10100000 01011111</t>
+  </si>
+  <si>
+    <t>01100000 10011111</t>
+  </si>
+  <si>
+    <t>11100000 00011111</t>
+  </si>
+  <si>
+    <t>00010000 11101111</t>
+  </si>
+  <si>
+    <t>00110000 11001111</t>
+  </si>
+  <si>
+    <t>00001000 11110111</t>
+  </si>
+  <si>
+    <t>00101000 11010111</t>
+  </si>
+  <si>
+    <t>10010000 01101111</t>
+  </si>
+  <si>
+    <t>10110000 01001111</t>
+  </si>
+  <si>
+    <t>10001000 01110111</t>
+  </si>
+  <si>
+    <t>10101000 01010111</t>
+  </si>
+  <si>
+    <t>01010000 10101111</t>
+  </si>
+  <si>
+    <t>01110000 10001111</t>
+  </si>
+  <si>
+    <t>01001000 10110111</t>
+  </si>
+  <si>
+    <t>01101000 10010111</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>00010000</t>
+  </si>
+  <si>
+    <t>11101111</t>
+  </si>
+  <si>
+    <t>00100000</t>
+  </si>
+  <si>
+    <t>00110000</t>
+  </si>
+  <si>
+    <t>01000000</t>
+  </si>
+  <si>
+    <t>01010000</t>
+  </si>
+  <si>
+    <t>+ 10000(2)</t>
+  </si>
+  <si>
+    <t>- 10000(2)</t>
+  </si>
+  <si>
+    <t>F710FEF</t>
+  </si>
+  <si>
+    <t>Too big! It's more than 2 Bytes :/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,19 +452,116 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,14 +573,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,223 +953,939 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EBF03C-9A23-B045-9F76-95FB8F49973E}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:AL57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="22" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:38" s="12" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7">
+        <v>255</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="7">
+        <v>32895</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16575</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="7">
+        <v>49215</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5">
+        <v>255</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4335</v>
+      </c>
+      <c r="I5" s="14">
+        <v>8415</v>
+      </c>
+      <c r="J5" s="14">
+        <v>12495</v>
+      </c>
+      <c r="K5" s="4">
+        <v>16575</v>
+      </c>
+      <c r="L5" s="4">
+        <f xml:space="preserve"> K5 + 4080</f>
+        <v>20655</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M4:AL5" si="0" xml:space="preserve"> L5 + 4080</f>
+        <v>24735</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="0"/>
+        <v>28815</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="0"/>
+        <v>32895</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="0"/>
+        <v>36975</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="0"/>
+        <v>41055</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="0"/>
+        <v>45135</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="0"/>
+        <v>49215</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
+        <v>53295</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>57375</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="0"/>
+        <v>61455</v>
+      </c>
+      <c r="W5" s="4">
+        <f xml:space="preserve"> V5 + 4080</f>
+        <v>65535</v>
+      </c>
+      <c r="X5" s="30">
+        <f xml:space="preserve"> W5 + 4080</f>
+        <v>69615</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="0"/>
+        <v>73695</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="shared" si="0"/>
+        <v>77775</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="0"/>
+        <v>81855</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" si="0"/>
+        <v>85935</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" si="0"/>
+        <v>90015</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="0"/>
+        <v>94095</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" si="0"/>
+        <v>98175</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" si="0"/>
+        <v>102255</v>
+      </c>
+      <c r="AG5" s="4">
+        <f t="shared" si="0"/>
+        <v>106335</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="0"/>
+        <v>110415</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="0"/>
+        <v>114495</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="0"/>
+        <v>118575</v>
+      </c>
+      <c r="AK5" s="4">
+        <f t="shared" si="0"/>
+        <v>122655</v>
+      </c>
+      <c r="AL5" s="4">
+        <f t="shared" si="0"/>
+        <v>126735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53295</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7">
+        <v>61455</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="7">
+        <v>51255</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>59415</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6897</v>
+      </c>
+      <c r="K9" s="3">
+        <v>8877</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="3">
+        <v>16797</v>
+      </c>
+      <c r="S9" s="3">
+        <v>18777</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="7">
+        <v>2295</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10455</v>
+      </c>
+      <c r="I10" s="7">
+        <v>18615</v>
+      </c>
+      <c r="J10" s="7">
+        <v>26775</v>
+      </c>
+      <c r="K10" s="7">
+        <v>34935</v>
+      </c>
+      <c r="L10" s="7">
+        <v>43095</v>
+      </c>
+      <c r="M10" s="7">
+        <v>51255</v>
+      </c>
+      <c r="N10" s="7">
+        <v>59415</v>
+      </c>
+      <c r="O10" s="27">
+        <f>N10 + 8160</f>
+        <v>67575</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:T10" si="1">O10 + 8160</f>
+        <v>75735</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>83895</v>
+      </c>
+      <c r="R10">
+        <f>Q10 + 8160</f>
+        <v>92055</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>100215</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>108375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D11" s="7">
+        <v>8415</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7">
+        <v>41055</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24735</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="7">
+        <v>57375</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="H14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="5">
+        <v>11011111</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="5">
+        <v>11001111</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:38" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4335</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16">
+        <v>10111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7">
+        <v>12495</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17">
+        <v>10101111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2295</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10455</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="7">
+        <v>36975</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45135</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22" s="3">
+        <v>8877</v>
+      </c>
+      <c r="D22" s="7">
+        <v>34935</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43095</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20655</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7">
+        <v>28815</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="7">
+        <v>18615</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C27" s="3">
+        <v>6897</v>
+      </c>
+      <c r="D27" s="7">
+        <v>26775</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -783,6 +1910,1395 @@
     <row r="54" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF99595-EDD5-174F-8B1C-10F11D82C595}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" style="26" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="28">
+        <v>1</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="28">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="28">
+        <v>1</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="29">
+        <v>0</v>
+      </c>
+      <c r="D25" s="29">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="29">
+        <v>0</v>
+      </c>
+      <c r="D26" s="29">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="29">
+        <v>0</v>
+      </c>
+      <c r="D27" s="29">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="29">
+        <v>0</v>
+      </c>
+      <c r="D28" s="29">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IR Codes remote.xlsx
+++ b/IR Codes remote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dropboxSpaceholder/Dropbox (Personal)/Semester5_Master/Masterthesis/prototyping/sittingCube/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FBC338-97CF-094C-B128-13FBDB077D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A023283-02B3-0847-B84A-0D06A1962CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{47BAAC61-011A-094D-A16C-912A0EF26B33}"/>
   </bookViews>
@@ -956,7 +956,7 @@
   <dimension ref="A1:AL57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
